--- a/IT_BDM/WebRoot/files/import/zmz/IMO账号登记.xlsx
+++ b/IT_BDM/WebRoot/files/import/zmz/IMO账号登记.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,13 +55,40 @@
   <si>
     <t>备注说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上为测试数据，请删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄光辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456@132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456@133</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +101,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -94,17 +129,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -424,9 +470,78 @@
       </c>
       <c r="J1" s="1"/>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>42733</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>134165</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <f>WEEKNUM(A2)</f>
+        <v>53</v>
+      </c>
+      <c r="I2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>42733</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>134166</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H4" si="0">WEEKNUM(A3)</f>
+        <v>53</v>
+      </c>
+      <c r="I3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2" display="123456@132"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>